--- a/계획서/간트차트.xlsx
+++ b/계획서/간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun gyu\My Dev\소공\계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1429C538-C8DE-434E-A025-B9E106A7FE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F779F6A-D702-46C1-BA2A-B15E94AAAEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D21FFF-DF36-42EE-B34B-328118EAED83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>종료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 추출, 유스케이스 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시나리오 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 명세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통합 서비스 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시스템 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,7 +88,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시험 기간 준비</t>
+    <t>요구 추출, 유스케이스 명세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 모델링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합서비스 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,37 +185,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -308,49 +274,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>요구 추출, 유스케이스 작성</c:v>
+                  <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>시나리오 작성</c:v>
+                  <c:v>요구 모델링</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>요구 명세</c:v>
+                  <c:v>서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>서비스 설계</c:v>
+                  <c:v>DB 설계</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DB 설계</c:v>
+                  <c:v>UI 설계</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>UI 설계</c:v>
+                  <c:v>시험기간</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>통합 서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>시험 기간 준비</c:v>
+                  <c:v>서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>서비스 구현</c:v>
+                  <c:v>DB 구현</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DB 구현</c:v>
+                  <c:v>UI 구현</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI 구현</c:v>
+                  <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>통합 서비스 구현</c:v>
+                  <c:v>시스템 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>시스템 테스트</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>알파 테스트</c:v>
                 </c:pt>
               </c:strCache>
@@ -358,58 +321,55 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$17</c:f>
+              <c:f>Sheet1!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>44106</c:v>
+                  <c:v>44119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44107</c:v>
+                  <c:v>44121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44109</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44111</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44111</c:v>
+                  <c:v>44125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44111</c:v>
+                  <c:v>44129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44115</c:v>
+                  <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44117</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44135</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44135</c:v>
+                  <c:v>44137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44135</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44144</c:v>
+                  <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44154</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44159</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D588-4984-83F1-BFDA2618F432}"/>
+              <c16:uniqueId val="{00000000-318C-4348-90ED-90EB2AD26C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -467,6 +427,7 @@
                 <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -496,49 +457,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>요구 추출, 유스케이스 작성</c:v>
+                  <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>시나리오 작성</c:v>
+                  <c:v>요구 모델링</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>요구 명세</c:v>
+                  <c:v>서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>서비스 설계</c:v>
+                  <c:v>DB 설계</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DB 설계</c:v>
+                  <c:v>UI 설계</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>UI 설계</c:v>
+                  <c:v>시험기간</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>통합 서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>시험 기간 준비</c:v>
+                  <c:v>서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>서비스 구현</c:v>
+                  <c:v>DB 구현</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DB 구현</c:v>
+                  <c:v>UI 구현</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI 구현</c:v>
+                  <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>통합 서비스 구현</c:v>
+                  <c:v>시스템 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>시스템 테스트</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>알파 테스트</c:v>
                 </c:pt>
               </c:strCache>
@@ -546,50 +504,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$17</c:f>
+              <c:f>Sheet1!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -597,7 +552,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D588-4984-83F1-BFDA2618F432}"/>
+              <c16:uniqueId val="{00000001-318C-4348-90ED-90EB2AD26C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -683,49 +638,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>요구 추출, 유스케이스 작성</c:v>
+                  <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>시나리오 작성</c:v>
+                  <c:v>요구 모델링</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>요구 명세</c:v>
+                  <c:v>서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>서비스 설계</c:v>
+                  <c:v>DB 설계</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DB 설계</c:v>
+                  <c:v>UI 설계</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>UI 설계</c:v>
+                  <c:v>시험기간</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>통합 서비스 설계</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>시험 기간 준비</c:v>
+                  <c:v>서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>서비스 구현</c:v>
+                  <c:v>DB 구현</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>DB 구현</c:v>
+                  <c:v>UI 구현</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI 구현</c:v>
+                  <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>통합 서비스 구현</c:v>
+                  <c:v>시스템 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>시스템 테스트</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>알파 테스트</c:v>
                 </c:pt>
               </c:strCache>
@@ -733,58 +685,55 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$17</c:f>
+              <c:f>Sheet1!$E$4:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>44106</c:v>
+                  <c:v>44120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44108</c:v>
+                  <c:v>44124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44110</c:v>
+                  <c:v>44128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44115</c:v>
+                  <c:v>44126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44112</c:v>
+                  <c:v>44127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44113</c:v>
+                  <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44116</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44134</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44143</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44139</c:v>
+                  <c:v>44155</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44153</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44158</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44160</c:v>
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D588-4984-83F1-BFDA2618F432}"/>
+              <c16:uniqueId val="{00000002-318C-4348-90ED-90EB2AD26C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,11 +747,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="118848351"/>
-        <c:axId val="296652879"/>
+        <c:axId val="844351871"/>
+        <c:axId val="1013381455"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118848351"/>
+        <c:axId val="844351871"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -845,7 +794,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296652879"/>
+        <c:crossAx val="1013381455"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -853,11 +802,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296652879"/>
+        <c:axId val="1013381455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44165"/>
-          <c:min val="44101"/>
+          <c:max val="44172"/>
+          <c:min val="44109"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -878,7 +827,7 @@
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -906,7 +855,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118848351"/>
+        <c:crossAx val="844351871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,37 +867,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1542,23 +1460,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BFADFD-09D8-41D6-9D29-3A9060F2BD06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4391EF3-86B6-4111-9F08-B91710776C13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88602BE-D3D9-4911-8434-5DE47CA8928D}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1890,10 +1808,10 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="F2">
-        <v>44106</v>
+        <v>44119</v>
       </c>
       <c r="G2">
-        <v>44160</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -1912,213 +1830,202 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>44106</v>
+        <v>44119</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f>SUM(D4,C4,-1)</f>
-        <v>44106</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>44107</v>
+        <v>44121</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E11" si="0">SUM(D5,C5,-1)</f>
-        <v>44108</v>
+        <f t="shared" ref="E5:E10" si="0">SUM(D5,C5,-1)</f>
+        <v>44124</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>44109</v>
+        <v>44125</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>44110</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>44111</v>
+        <v>44125</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>44115</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>44111</v>
+        <v>44125</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>44112</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>44111</v>
+        <v>44129</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>44113</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>44115</v>
+        <v>44135</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>44116</v>
+        <f>SUM(D10,C10,-1)</f>
+        <v>44136</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>44117</v>
+        <v>44137</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>44134</v>
+        <f>SUM(D11,C11,-1)</f>
+        <v>44145</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <f>SUM(D12,C12,-1)</f>
-        <v>44143</v>
+        <f t="shared" ref="E12:E17" si="1">SUM(D12,C12,-1)</f>
+        <v>44139</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>44135</v>
+        <v>44137</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <f>SUM(D13,C13,-1)</f>
-        <v>44137</v>
+        <f t="shared" si="1"/>
+        <v>44139</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>44135</v>
+        <v>44146</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <f>SUM(D14,C14,-1)</f>
-        <v>44139</v>
+        <f t="shared" si="1"/>
+        <v>44155</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>44144</v>
+        <v>44156</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(D15,C15,-1)</f>
-        <v>44153</v>
+        <f t="shared" si="1"/>
+        <v>44160</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>44154</v>
+        <v>44161</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM(D16,C16,-1)</f>
-        <v>44158</v>
+        <f t="shared" si="1"/>
+        <v>44162</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44159</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <f>SUM(D17,C17,-1)</f>
-        <v>44160</v>
-      </c>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계획서/간트차트.xlsx
+++ b/계획서/간트차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun gyu\My Dev\소공\계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F779F6A-D702-46C1-BA2A-B15E94AAAEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3061E6-67B1-4D7D-B732-21A7282B2B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D21FFF-DF36-42EE-B34B-328118EAED83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시스템 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요구 추출, 유스케이스 명세</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,6 +93,18 @@
   </si>
   <si>
     <t>통합서비스 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인수 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,9 +278,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$16</c:f>
+              <c:f>Sheet1!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -311,20 +315,23 @@
                   <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>시스템 테스트</c:v>
+                  <c:v>UI 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>알파 테스트</c:v>
+                  <c:v>기능 테스트</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>인수 테스트</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$16</c:f>
+              <c:f>Sheet1!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44119</c:v>
                 </c:pt>
@@ -362,6 +369,9 @@
                   <c:v>44156</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44161</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,6 +407,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9592-4AEA-AD0F-73255A2EBD52}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9592-4AEA-AD0F-73255A2EBD52}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9592-4AEA-AD0F-73255A2EBD52}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9592-4AEA-AD0F-73255A2EBD52}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7F48-4439-A403-DDE69325AD21}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7F48-4439-A403-DDE69325AD21}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -457,9 +590,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$16</c:f>
+              <c:f>Sheet1!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -494,20 +627,23 @@
                   <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>시스템 테스트</c:v>
+                  <c:v>UI 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>알파 테스트</c:v>
+                  <c:v>기능 테스트</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>인수 테스트</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$16</c:f>
+              <c:f>Sheet1!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -545,6 +681,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -638,9 +777,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$16</c:f>
+              <c:f>Sheet1!$B$4:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -675,20 +814,23 @@
                   <c:v>통합서비스 구현</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>시스템 테스트</c:v>
+                  <c:v>UI 테스트</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>알파 테스트</c:v>
+                  <c:v>기능 테스트</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>인수 테스트</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$16</c:f>
+              <c:f>Sheet1!$E$4:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>44120</c:v>
                 </c:pt>
@@ -726,6 +868,9 @@
                   <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
@@ -908,6 +1053,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1461,15 +1607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1495,6 +1641,935 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9101</cdr:x>
+      <cdr:y>0.20461</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95514</cdr:x>
+      <cdr:y>0.2381</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9F0EB4-B8AF-4E30-ACB9-2821A63A3217}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6466840" y="698500"/>
+          <a:ext cx="320040" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9101</cdr:x>
+      <cdr:y>0.13765</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95514</cdr:x>
+      <cdr:y>0.17113</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9F0EB4-B8AF-4E30-ACB9-2821A63A3217}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6466840" y="469900"/>
+          <a:ext cx="320040" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78892</cdr:x>
+      <cdr:y>0.18229</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93381</cdr:x>
+      <cdr:y>0.26129</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9D97C3-3D12-4A21-B4A4-159917A59F23}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5605780" y="622300"/>
+          <a:ext cx="1029541" cy="269689"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>               김현규</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78999</cdr:x>
+      <cdr:y>0.1131</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93488</cdr:x>
+      <cdr:y>0.1921</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9D97C3-3D12-4A21-B4A4-159917A59F23}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5613400" y="386080"/>
+          <a:ext cx="1029541" cy="269689"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>엄현식</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.9101</cdr:x>
+      <cdr:y>0.07068</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95514</cdr:x>
+      <cdr:y>0.10417</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACCA8C6-1223-424E-A000-822DA4D2A69D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6466840" y="241300"/>
+          <a:ext cx="320040" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78999</cdr:x>
+      <cdr:y>0.0506</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93488</cdr:x>
+      <cdr:y>0.1296</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB52D50-323B-44D5-8735-0C8B84FE0610}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5613400" y="172720"/>
+          <a:ext cx="1029541" cy="269689"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>김현규</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="1"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="1"/>
+            <a:t>엄현식</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,7 +2872,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1830,7 +2905,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>44119</v>
@@ -1845,7 +2920,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>44121</v>
@@ -1854,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="0">SUM(D5,C5,-1)</f>
+        <f t="shared" ref="E5:E9" si="0">SUM(D5,C5,-1)</f>
         <v>44124</v>
       </c>
     </row>
@@ -1905,7 +2980,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>44129</v>
@@ -1980,7 +3055,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>44146</v>
@@ -1995,7 +3070,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
         <v>44156</v>
@@ -2010,22 +3085,33 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>44161</v>
+        <v>44156</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44161</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
         <v>44162</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/계획서/간트차트.xlsx
+++ b/계획서/간트차트.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun gyu\My Dev\소공\계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3061E6-67B1-4D7D-B732-21A7282B2B06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165065BE-D0E1-4C4E-96B2-630CDFCBC433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D21FFF-DF36-42EE-B34B-328118EAED83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>인수 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 결과 보고서 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,9 +282,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -322,16 +326,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>인수 테스트</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>최종 결과 보고서 작성</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$17</c:f>
+              <c:f>Sheet1!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44119</c:v>
                 </c:pt>
@@ -354,25 +361,28 @@
                   <c:v>44135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44137</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44137</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44137</c:v>
+                  <c:v>44140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44146</c:v>
+                  <c:v>44149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44156</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44156</c:v>
+                  <c:v>44159</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44161</c:v>
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,9 +600,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -634,16 +644,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>인수 테스트</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>최종 결과 보고서 작성</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$17</c:f>
+              <c:f>Sheet1!$D$4:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -663,28 +676,31 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,9 +793,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$17</c:f>
+              <c:f>Sheet1!$B$4:$B$18</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>요구 추출, 유스케이스 명세</c:v>
                 </c:pt>
@@ -821,16 +837,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>인수 테스트</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>최종 결과 보고서 작성</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$17</c:f>
+              <c:f>Sheet1!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44120</c:v>
                 </c:pt>
@@ -850,28 +869,31 @@
                   <c:v>44134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44136</c:v>
+                  <c:v>44139</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>44145</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>44139</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>44139</c:v>
+                  <c:v>44145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44155</c:v>
+                  <c:v>44158</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44160</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44160</c:v>
+                  <c:v>44161</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44162</c:v>
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88602BE-D3D9-4911-8434-5DE47CA8928D}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3001,11 +3023,11 @@
         <v>44135</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <f>SUM(D10,C10,-1)</f>
-        <v>44136</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -3013,14 +3035,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="1">
         <f>SUM(D11,C11,-1)</f>
-        <v>44145</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -3028,14 +3050,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E17" si="1">SUM(D12,C12,-1)</f>
-        <v>44139</v>
+        <f t="shared" ref="E12:E18" si="1">SUM(D12,C12,-1)</f>
+        <v>44145</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -3043,14 +3065,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>44137</v>
+        <v>44140</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>44139</v>
+        <v>44145</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -3058,14 +3080,14 @@
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>44146</v>
+        <v>44149</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>44155</v>
+        <v>44158</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -3073,14 +3095,14 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>44156</v>
+        <v>44159</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -3088,14 +3110,14 @@
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>44156</v>
+        <v>44159</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>44160</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
@@ -3103,14 +3125,29 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>44162</v>
+        <v>44163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44164</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>44167</v>
       </c>
     </row>
   </sheetData>

--- a/계획서/간트차트.xlsx
+++ b/계획서/간트차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun gyu\My Dev\소공\계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165065BE-D0E1-4C4E-96B2-630CDFCBC433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9289D-86AA-4D97-82F6-E8516580403B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22D21FFF-DF36-42EE-B34B-328118EAED83}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최종 결과 보고서 작성</t>
+    <t>최종 검수 및 배포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +328,7 @@
                   <c:v>인수 테스트</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>최종 결과 보고서 작성</c:v>
+                  <c:v>최종 검수 및 배포</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -646,7 +646,7 @@
                   <c:v>인수 테스트</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>최종 결과 보고서 작성</c:v>
+                  <c:v>최종 검수 및 배포</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,7 +839,7 @@
                   <c:v>인수 테스트</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>최종 결과 보고서 작성</c:v>
+                  <c:v>최종 검수 및 배포</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2894,7 +2894,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
